--- a/Journal.xlsx
+++ b/Journal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago.SANTOS\Desktop\Bataille\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago.SANTOS\Desktop\BatailleNavaleSantos431\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
   <si>
     <t>Journal</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>Liste des points pour la documentation</t>
+  </si>
+  <si>
+    <t>Apprendre comment utiliser Github desktop</t>
+  </si>
+  <si>
+    <t>Installer Github et passer la documentation sur github</t>
   </si>
 </sst>
 </file>
@@ -471,91 +477,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -841,7 +847,7 @@
   <dimension ref="B1:N1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,54 +861,54 @@
     <col min="10" max="10" width="16.42578125" customWidth="1"/>
     <col min="11" max="11" width="14.28515625" customWidth="1"/>
     <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="14" max="14" width="26.140625" customWidth="1"/>
+    <col min="14" max="14" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
-      <c r="I1" s="24" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="19"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
     </row>
     <row r="4" spans="2:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -917,10 +923,10 @@
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="37"/>
       <c r="I4" s="5" t="s">
         <v>1</v>
       </c>
@@ -933,10 +939,10 @@
       <c r="L4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="34"/>
+      <c r="N4" s="24"/>
     </row>
     <row r="5" spans="2:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
@@ -951,10 +957,10 @@
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="G5" s="38"/>
       <c r="I5" s="3" t="s">
         <v>5</v>
       </c>
@@ -967,10 +973,10 @@
       <c r="L5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="10"/>
+      <c r="N5" s="25"/>
     </row>
     <row r="6" spans="2:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -985,10 +991,10 @@
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="28"/>
       <c r="I6" s="7" t="s">
         <v>5</v>
       </c>
@@ -1001,10 +1007,10 @@
       <c r="L6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="35" t="s">
+      <c r="M6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="36"/>
+      <c r="N6" s="27"/>
     </row>
     <row r="7" spans="2:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -1019,10 +1025,10 @@
       <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="25"/>
       <c r="I7" s="9" t="s">
         <v>23</v>
       </c>
@@ -1035,10 +1041,10 @@
       <c r="L7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="23"/>
+      <c r="N7" s="11"/>
     </row>
     <row r="8" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -1053,10 +1059,10 @@
       <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="25"/>
       <c r="I8" s="9" t="s">
         <v>5</v>
       </c>
@@ -1069,10 +1075,10 @@
       <c r="L8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="36"/>
+      <c r="N8" s="27"/>
     </row>
     <row r="9" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
@@ -1087,10 +1093,10 @@
       <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="25"/>
       <c r="I9" s="9" t="s">
         <v>23</v>
       </c>
@@ -1103,10 +1109,10 @@
       <c r="L9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="23"/>
+      <c r="N9" s="11"/>
     </row>
     <row r="10" spans="2:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -1121,10 +1127,10 @@
       <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="25"/>
       <c r="I10" s="9" t="s">
         <v>5</v>
       </c>
@@ -1137,10 +1143,10 @@
       <c r="L10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="M10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="23"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -1155,10 +1161,10 @@
       <c r="E11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="28"/>
       <c r="I11" s="9" t="s">
         <v>5</v>
       </c>
@@ -1171,10 +1177,10 @@
       <c r="L11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="M11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="N11" s="23"/>
+      <c r="N11" s="11"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
@@ -1189,16 +1195,26 @@
       <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="23"/>
+      <c r="G12" s="28"/>
+      <c r="I12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="8">
+        <v>43558</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="11"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -1213,16 +1229,16 @@
       <c r="E13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="28"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="23"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11"/>
     </row>
     <row r="14" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
@@ -1237,16 +1253,16 @@
       <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="25"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="23"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="11"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -1261,16 +1277,16 @@
       <c r="E15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="28"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="23"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="11"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
@@ -1285,16 +1301,16 @@
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="11"/>
+      <c r="G16" s="28"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="23"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="11"/>
     </row>
     <row r="17" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
@@ -1309,350 +1325,321 @@
       <c r="E17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="25"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="23"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="8">
+        <v>43558</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="25"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="23"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="11"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="23"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="11"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="23"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="11"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="23"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="11"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="23"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="11"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="23"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="11"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="23"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="11"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="23"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="11"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="23"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="11"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="23"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="11"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="23"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="11"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="23"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="11"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="23"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="11"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="23"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="11"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="23"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="11"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="23"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="11"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="23"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="11"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="23"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="11"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="23"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="11"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="38"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="13"/>
     </row>
     <row r="1048576" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F1048576" s="21"/>
-      <c r="G1048576" s="21"/>
+      <c r="F1048576" s="29"/>
+      <c r="G1048576" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="I1:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B1:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F1048576:G1048576"/>
     <mergeCell ref="F10:G10"/>
@@ -1669,14 +1656,53 @@
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B1:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="I1:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>

--- a/Journal.xlsx
+++ b/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="43">
   <si>
     <t>Journal</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Installer Github et passer la documentation sur github</t>
+  </si>
+  <si>
+    <t>Finalisation du code</t>
   </si>
 </sst>
 </file>
@@ -477,91 +480,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -846,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,50 +868,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-      <c r="I1" s="14" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
+      <c r="I1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="35"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="19"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="22"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
     </row>
     <row r="4" spans="2:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -923,10 +926,10 @@
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="37"/>
+      <c r="G4" s="19"/>
       <c r="I4" s="5" t="s">
         <v>1</v>
       </c>
@@ -939,10 +942,10 @@
       <c r="L4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="24"/>
+      <c r="N4" s="34"/>
     </row>
     <row r="5" spans="2:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
@@ -957,10 +960,10 @@
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="38"/>
+      <c r="G5" s="20"/>
       <c r="I5" s="3" t="s">
         <v>5</v>
       </c>
@@ -973,10 +976,10 @@
       <c r="L5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="25"/>
+      <c r="N5" s="10"/>
     </row>
     <row r="6" spans="2:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -991,10 +994,10 @@
       <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="28"/>
+      <c r="G6" s="11"/>
       <c r="I6" s="7" t="s">
         <v>5</v>
       </c>
@@ -1007,10 +1010,10 @@
       <c r="L6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="27"/>
+      <c r="N6" s="36"/>
     </row>
     <row r="7" spans="2:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -1025,10 +1028,10 @@
       <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="25"/>
+      <c r="G7" s="10"/>
       <c r="I7" s="9" t="s">
         <v>23</v>
       </c>
@@ -1041,10 +1044,10 @@
       <c r="L7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="11"/>
+      <c r="N7" s="23"/>
     </row>
     <row r="8" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
@@ -1059,10 +1062,10 @@
       <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="25"/>
+      <c r="G8" s="10"/>
       <c r="I8" s="9" t="s">
         <v>5</v>
       </c>
@@ -1075,10 +1078,10 @@
       <c r="L8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="27"/>
+      <c r="N8" s="36"/>
     </row>
     <row r="9" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
@@ -1093,10 +1096,10 @@
       <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="25"/>
+      <c r="G9" s="10"/>
       <c r="I9" s="9" t="s">
         <v>23</v>
       </c>
@@ -1109,10 +1112,10 @@
       <c r="L9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="M9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="11"/>
+      <c r="N9" s="23"/>
     </row>
     <row r="10" spans="2:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
@@ -1127,10 +1130,10 @@
       <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="25"/>
+      <c r="G10" s="10"/>
       <c r="I10" s="9" t="s">
         <v>5</v>
       </c>
@@ -1143,10 +1146,10 @@
       <c r="L10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="23"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -1161,10 +1164,10 @@
       <c r="E11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="F11" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="28"/>
+      <c r="G11" s="11"/>
       <c r="I11" s="9" t="s">
         <v>5</v>
       </c>
@@ -1177,10 +1180,10 @@
       <c r="L11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="M11" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="N11" s="11"/>
+      <c r="N11" s="23"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
@@ -1195,10 +1198,10 @@
       <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="28"/>
+      <c r="G12" s="11"/>
       <c r="I12" s="9" t="s">
         <v>5</v>
       </c>
@@ -1211,10 +1214,10 @@
       <c r="L12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="11"/>
+      <c r="N12" s="23"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -1229,16 +1232,16 @@
       <c r="E13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="F13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="28"/>
+      <c r="G13" s="11"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="11"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="23"/>
     </row>
     <row r="14" spans="2:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
@@ -1253,16 +1256,16 @@
       <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="10"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="23"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
@@ -1277,16 +1280,16 @@
       <c r="E15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="28"/>
+      <c r="G15" s="11"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="11"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="23"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
@@ -1301,16 +1304,16 @@
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="28"/>
+      <c r="G16" s="11"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="23"/>
     </row>
     <row r="17" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
@@ -1325,16 +1328,16 @@
       <c r="E17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G17" s="25"/>
+      <c r="G17" s="10"/>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="11"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="23"/>
     </row>
     <row r="18" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
@@ -1349,297 +1352,356 @@
       <c r="E18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G18" s="25"/>
+      <c r="G18" s="10"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="11"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="23"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
+      <c r="B19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="8">
+        <v>43559</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="11"/>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="11"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="23"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="8">
+        <v>43560</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="11"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="11"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="11"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="23"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="11"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="23"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="11"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="23"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="11"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="23"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="11"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="23"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="11"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="23"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="11"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="23"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="11"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="23"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="11"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="23"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="11"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="23"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="11"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="23"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="11"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="23"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="11"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="23"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="11"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="23"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="11"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="23"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="11"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="23"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="13"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="38"/>
     </row>
     <row r="1048576" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F1048576" s="29"/>
-      <c r="G1048576" s="29"/>
+      <c r="F1048576" s="21"/>
+      <c r="G1048576" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B1:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="I1:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F1048576:G1048576"/>
     <mergeCell ref="F10:G10"/>
@@ -1656,53 +1718,14 @@
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="I1:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B1:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="152" orientation="portrait" r:id="rId1"/>
